--- a/data/Subset1_WithDialogActs/Math SW4 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math SW4 transcript.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -983,12 +983,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1067,12 +1067,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2943,12 +2943,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3111,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4429,12 +4429,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5445,12 +5445,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6591,12 +6591,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6969,12 +6969,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7775,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7817,12 +7817,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8111,12 +8111,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9029,12 +9029,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9071,12 +9071,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9407,12 +9407,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9449,12 +9449,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10721,12 +10721,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10981,12 +10981,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11279,12 +11279,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11577,12 +11577,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12127,12 +12127,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12425,12 +12425,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12551,12 +12551,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12765,12 +12765,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12891,12 +12891,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13269,12 +13269,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13353,12 +13353,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13395,12 +13395,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13437,12 +13437,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13479,12 +13479,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13605,12 +13605,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14147,12 +14147,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14361,12 +14361,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14403,12 +14403,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14693,12 +14693,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14735,12 +14735,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15869,12 +15869,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16419,12 +16419,12 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16461,12 +16461,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16503,12 +16503,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16633,12 +16633,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16717,12 +16717,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16801,12 +16801,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16969,12 +16969,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17011,12 +17011,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17053,12 +17053,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17473,12 +17473,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17641,12 +17641,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17935,12 +17935,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17977,12 +17977,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18145,12 +18145,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19195,12 +19195,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19279,12 +19279,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19531,12 +19531,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19573,12 +19573,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19741,12 +19741,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20035,12 +20035,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20203,12 +20203,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20551,12 +20551,12 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20593,12 +20593,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20933,12 +20933,12 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20975,12 +20975,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21567,12 +21567,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22075,12 +22075,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22159,12 +22159,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23133,12 +23133,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23553,12 +23553,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23805,12 +23805,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23931,12 +23931,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24103,12 +24103,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24271,12 +24271,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24607,12 +24607,12 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24775,12 +24775,12 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24943,12 +24943,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25195,12 +25195,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25279,12 +25279,12 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26437,12 +26437,12 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26903,12 +26903,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27323,12 +27323,12 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27449,12 +27449,12 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27701,12 +27701,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28247,12 +28247,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28671,12 +28671,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28755,12 +28755,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29431,12 +29431,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29645,12 +29645,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29939,12 +29939,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30065,12 +30065,12 @@
       <c r="H701" t="inlineStr"/>
       <c r="I701" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30107,12 +30107,12 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30191,12 +30191,12 @@
       <c r="H704" t="inlineStr"/>
       <c r="I704" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30275,12 +30275,12 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31543,12 +31543,12 @@
       <c r="H736" t="inlineStr"/>
       <c r="I736" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32303,12 +32303,12 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32471,12 +32471,12 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32811,12 +32811,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33113,12 +33113,12 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33155,12 +33155,12 @@
       <c r="H774" t="inlineStr"/>
       <c r="I774" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33197,12 +33197,12 @@
       <c r="H775" t="inlineStr"/>
       <c r="I775" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33529,12 +33529,12 @@
       <c r="H783" t="inlineStr"/>
       <c r="I783" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34747,12 +34747,12 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34915,12 +34915,12 @@
       <c r="H816" t="inlineStr"/>
       <c r="I816" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35503,12 +35503,12 @@
       <c r="H830" t="inlineStr"/>
       <c r="I830" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -35801,12 +35801,12 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36473,12 +36473,12 @@
       <c r="H853" t="inlineStr"/>
       <c r="I853" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36985,12 +36985,12 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37027,12 +37027,12 @@
       <c r="H866" t="inlineStr"/>
       <c r="I866" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37711,12 +37711,12 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38177,12 +38177,12 @@
       <c r="H893" t="inlineStr"/>
       <c r="I893" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38891,12 +38891,12 @@
       <c r="H910" t="inlineStr"/>
       <c r="I910" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39057,12 +39057,12 @@
       <c r="H914" t="inlineStr"/>
       <c r="I914" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39443,12 +39443,12 @@
       <c r="H923" t="inlineStr"/>
       <c r="I923" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40795,12 +40795,12 @@
       <c r="H955" t="inlineStr"/>
       <c r="I955" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40921,12 +40921,12 @@
       <c r="H958" t="inlineStr"/>
       <c r="I958" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41601,12 +41601,12 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42021,12 +42021,12 @@
       <c r="H984" t="inlineStr"/>
       <c r="I984" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42105,12 +42105,12 @@
       <c r="H986" t="inlineStr"/>
       <c r="I986" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -43045,12 +43045,12 @@
       <c r="H1008" t="inlineStr"/>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43427,12 +43427,12 @@
       <c r="H1017" t="inlineStr"/>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -43725,12 +43725,12 @@
       <c r="H1024" t="inlineStr"/>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44027,12 +44027,12 @@
       <c r="H1031" t="inlineStr"/>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44451,12 +44451,12 @@
       <c r="H1041" t="inlineStr"/>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44879,12 +44879,12 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45685,12 +45685,12 @@
       <c r="H1070" t="inlineStr"/>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46025,12 +46025,12 @@
       <c r="H1078" t="inlineStr"/>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1078" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -46109,12 +46109,12 @@
       <c r="H1080" t="inlineStr"/>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -46151,12 +46151,12 @@
       <c r="H1081" t="inlineStr"/>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1081" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -46445,12 +46445,12 @@
       <c r="H1088" t="inlineStr"/>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46529,12 +46529,12 @@
       <c r="H1090" t="inlineStr"/>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46739,12 +46739,12 @@
       <c r="H1095" t="inlineStr"/>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46827,12 +46827,12 @@
       <c r="H1097" t="inlineStr"/>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47713,12 +47713,12 @@
       <c r="H1118" t="inlineStr"/>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48133,12 +48133,12 @@
       <c r="H1128" t="inlineStr"/>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
